--- a/테스트1/작업요청파일.xlsx
+++ b/테스트1/작업요청파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영석\Desktop\테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영석\Documents\GitHub\uipath-quiz\테스트1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B98EA-E565-4CF9-AA79-6E2D99E801B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623702ED-8D77-4D32-8804-87F81D1A148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>이름</t>
   </si>
@@ -57,6 +57,103 @@
   </si>
   <si>
     <t>최동욱</t>
+  </si>
+  <si>
+    <t>삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Jane_Doe22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Johnson	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ChrisO'Reilly	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Anne	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <t>이영희</t>
+  </si>
+  <si>
+    <t>박정환</t>
+  </si>
+  <si>
+    <t>최민수</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>송다영</t>
+  </si>
+  <si>
+    <t>한지민</t>
+  </si>
+  <si>
+    <t>신동엽</t>
+  </si>
+  <si>
+    <t>오세훈</t>
+  </si>
+  <si>
+    <t>Chul-Soo Kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young_Hee Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeong Hwan Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minsu*Choi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soo-Bin, Jung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha Neul Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Da-Young Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimin Han</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongyeop_Shin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se-Hoon O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,58 +584,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E6EB3-E7C4-4C2E-972F-6D530BD56F4D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
